--- a/config_12.15/item_config.xlsx
+++ b/config_12.15/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="787">
   <si>
     <t>id|行号</t>
   </si>
@@ -3078,6 +3078,22 @@
   </si>
   <si>
     <t>prop_12_12_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_dz_jz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hldz_iocn_jz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子掉落物</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬至饺子掉落物</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3156,7 +3172,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3205,6 +3221,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3248,7 +3270,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3340,6 +3362,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3620,11 +3648,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q283"/>
+  <dimension ref="A1:Q284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N157" sqref="N157:N171"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S284" sqref="S284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13238,6 +13266,38 @@
         <v>781</v>
       </c>
     </row>
+    <row r="284" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="31">
+        <v>283</v>
+      </c>
+      <c r="B284" s="31">
+        <v>283</v>
+      </c>
+      <c r="C284" s="32" t="s">
+        <v>783</v>
+      </c>
+      <c r="D284" s="31">
+        <v>-1</v>
+      </c>
+      <c r="E284" s="31">
+        <v>1</v>
+      </c>
+      <c r="F284" s="31" t="s">
+        <v>784</v>
+      </c>
+      <c r="G284" s="31">
+        <v>0</v>
+      </c>
+      <c r="H284" s="31">
+        <v>33</v>
+      </c>
+      <c r="I284" s="31" t="s">
+        <v>785</v>
+      </c>
+      <c r="J284" s="31" t="s">
+        <v>786</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.15/item_config.xlsx
+++ b/config_12.15/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="826">
   <si>
     <t>id|行号</t>
   </si>
@@ -3042,42 +3042,168 @@
     <t>prop_fishbowl_fry30</t>
   </si>
   <si>
+    <t>prop_fishbowl_fry_fragment1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_stars</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒掉落物</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_12_12_lh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dhhl_iocn_lh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二礼盒道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_12_12_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>szg_iocn_xx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>szg_iocn_sl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>szg_iocn_jlyb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>szg_iocn_gjjlyb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu29</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu27</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu28</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu36</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu31</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu30</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu43</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu47</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry31</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fry_fragment1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fishbowl_stars</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒掉落物</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_12_12_lh</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dhhl_iocn_lh</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二礼盒道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_12_12_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish32</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3648,11 +3774,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q284"/>
+  <dimension ref="A1:Q287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S284" sqref="S284"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9815,7 +9941,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D185" s="27">
         <v>-1</v>
@@ -9824,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>658</v>
+        <v>782</v>
       </c>
       <c r="G185" s="27">
         <v>1</v>
@@ -9858,8 +9984,8 @@
       <c r="E186" s="27">
         <v>1</v>
       </c>
-      <c r="F186" s="27" t="s">
-        <v>658</v>
+      <c r="F186" s="28" t="s">
+        <v>783</v>
       </c>
       <c r="G186" s="27">
         <v>1</v>
@@ -9893,8 +10019,8 @@
       <c r="E187" s="27">
         <v>1</v>
       </c>
-      <c r="F187" s="27" t="s">
-        <v>658</v>
+      <c r="F187" s="28" t="s">
+        <v>784</v>
       </c>
       <c r="G187" s="27">
         <v>1</v>
@@ -9928,8 +10054,8 @@
       <c r="E188" s="27">
         <v>1</v>
       </c>
-      <c r="F188" s="27" t="s">
-        <v>658</v>
+      <c r="F188" s="28" t="s">
+        <v>785</v>
       </c>
       <c r="G188" s="27">
         <v>1</v>
@@ -9963,8 +10089,8 @@
       <c r="E189" s="27">
         <v>1</v>
       </c>
-      <c r="F189" s="27" t="s">
-        <v>658</v>
+      <c r="F189" s="28" t="s">
+        <v>787</v>
       </c>
       <c r="G189" s="27">
         <v>1</v>
@@ -9999,7 +10125,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>658</v>
+        <v>788</v>
       </c>
       <c r="G190" s="27">
         <v>1</v>
@@ -10034,7 +10160,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>658</v>
+        <v>786</v>
       </c>
       <c r="G191" s="27">
         <v>1</v>
@@ -10069,7 +10195,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>658</v>
+        <v>789</v>
       </c>
       <c r="G192" s="27">
         <v>1</v>
@@ -10104,7 +10230,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>658</v>
+        <v>790</v>
       </c>
       <c r="G193" s="27">
         <v>1</v>
@@ -10139,7 +10265,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>658</v>
+        <v>791</v>
       </c>
       <c r="G194" s="27">
         <v>1</v>
@@ -10174,7 +10300,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>658</v>
+        <v>792</v>
       </c>
       <c r="G195" s="27">
         <v>1</v>
@@ -10209,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
       <c r="G196" s="27">
         <v>1</v>
@@ -10244,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>658</v>
+        <v>796</v>
       </c>
       <c r="G197" s="27">
         <v>1</v>
@@ -10279,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>658</v>
+        <v>797</v>
       </c>
       <c r="G198" s="27">
         <v>1</v>
@@ -10314,7 +10440,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="G199" s="27">
         <v>1</v>
@@ -10349,7 +10475,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="27" t="s">
-        <v>658</v>
+        <v>799</v>
       </c>
       <c r="G200" s="27">
         <v>1</v>
@@ -10384,7 +10510,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>658</v>
+        <v>794</v>
       </c>
       <c r="G201" s="27">
         <v>1</v>
@@ -10419,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>658</v>
+        <v>795</v>
       </c>
       <c r="G202" s="27">
         <v>1</v>
@@ -10454,7 +10580,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>658</v>
+        <v>800</v>
       </c>
       <c r="G203" s="27">
         <v>1</v>
@@ -10489,7 +10615,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>658</v>
+        <v>801</v>
       </c>
       <c r="G204" s="27">
         <v>1</v>
@@ -10524,7 +10650,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>658</v>
+        <v>802</v>
       </c>
       <c r="G205" s="27">
         <v>1</v>
@@ -10559,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>658</v>
+        <v>803</v>
       </c>
       <c r="G206" s="27">
         <v>1</v>
@@ -10594,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>658</v>
+        <v>804</v>
       </c>
       <c r="G207" s="27">
         <v>1</v>
@@ -10629,7 +10755,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="27" t="s">
-        <v>658</v>
+        <v>805</v>
       </c>
       <c r="G208" s="27">
         <v>1</v>
@@ -10664,7 +10790,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>658</v>
+        <v>806</v>
       </c>
       <c r="G209" s="27">
         <v>1</v>
@@ -10699,7 +10825,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>658</v>
+        <v>807</v>
       </c>
       <c r="G210" s="27">
         <v>1</v>
@@ -10734,7 +10860,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>658</v>
+        <v>808</v>
       </c>
       <c r="G211" s="27">
         <v>1</v>
@@ -10769,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>658</v>
+        <v>809</v>
       </c>
       <c r="G212" s="27">
         <v>1</v>
@@ -10804,7 +10930,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>658</v>
+        <v>810</v>
       </c>
       <c r="G213" s="27">
         <v>1</v>
@@ -10839,7 +10965,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>658</v>
+        <v>811</v>
       </c>
       <c r="G214" s="27">
         <v>1</v>
@@ -10874,7 +11000,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>658</v>
+        <v>812</v>
       </c>
       <c r="G215" s="27">
         <v>1</v>
@@ -10909,7 +11035,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>658</v>
+        <v>813</v>
       </c>
       <c r="G216" s="27">
         <v>1</v>
@@ -10944,7 +11070,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>658</v>
+        <v>814</v>
       </c>
       <c r="G217" s="27">
         <v>1</v>
@@ -10979,7 +11105,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>658</v>
+        <v>815</v>
       </c>
       <c r="G218" s="27">
         <v>1</v>
@@ -11005,7 +11131,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>773</v>
+        <v>817</v>
       </c>
       <c r="D219" s="27">
         <v>-1</v>
@@ -11014,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>658</v>
+        <v>816</v>
       </c>
       <c r="G219" s="27">
         <v>1</v>
@@ -11040,7 +11166,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
-        <v>774</v>
+        <v>818</v>
       </c>
       <c r="D220" s="27">
         <v>-1</v>
@@ -11048,20 +11174,20 @@
       <c r="E220" s="27">
         <v>1</v>
       </c>
-      <c r="F220" s="27" t="s">
-        <v>658</v>
+      <c r="F220" s="28" t="s">
+        <v>819</v>
       </c>
       <c r="G220" s="27">
         <v>1</v>
       </c>
       <c r="H220" s="27">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N220" s="27">
         <v>16</v>
@@ -11074,8 +11200,8 @@
       <c r="B221" s="27">
         <v>220</v>
       </c>
-      <c r="C221" s="27" t="s">
-        <v>714</v>
+      <c r="C221" s="28" t="s">
+        <v>773</v>
       </c>
       <c r="D221" s="27">
         <v>-1</v>
@@ -11083,14 +11209,14 @@
       <c r="E221" s="27">
         <v>1</v>
       </c>
-      <c r="F221" s="27" t="s">
-        <v>658</v>
+      <c r="F221" s="28" t="s">
+        <v>787</v>
       </c>
       <c r="G221" s="27">
         <v>1</v>
       </c>
       <c r="H221" s="27">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I221" s="28" t="s">
         <v>677</v>
@@ -11110,7 +11236,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D222" s="27">
         <v>-1</v>
@@ -11119,13 +11245,13 @@
         <v>1</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>658</v>
+        <v>788</v>
       </c>
       <c r="G222" s="27">
         <v>1</v>
       </c>
       <c r="H222" s="27">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I222" s="28" t="s">
         <v>677</v>
@@ -11145,7 +11271,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D223" s="27">
         <v>-1</v>
@@ -11154,13 +11280,13 @@
         <v>1</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>658</v>
+        <v>786</v>
       </c>
       <c r="G223" s="27">
         <v>1</v>
       </c>
       <c r="H223" s="27">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I223" s="28" t="s">
         <v>677</v>
@@ -11180,7 +11306,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D224" s="27">
         <v>-1</v>
@@ -11189,13 +11315,13 @@
         <v>1</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>658</v>
+        <v>789</v>
       </c>
       <c r="G224" s="27">
         <v>1</v>
       </c>
       <c r="H224" s="27">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I224" s="28" t="s">
         <v>677</v>
@@ -11215,7 +11341,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D225" s="27">
         <v>-1</v>
@@ -11224,13 +11350,13 @@
         <v>1</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>658</v>
+        <v>790</v>
       </c>
       <c r="G225" s="27">
         <v>1</v>
       </c>
       <c r="H225" s="27">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I225" s="28" t="s">
         <v>677</v>
@@ -11250,7 +11376,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D226" s="27">
         <v>-1</v>
@@ -11259,13 +11385,13 @@
         <v>1</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>658</v>
+        <v>791</v>
       </c>
       <c r="G226" s="27">
         <v>1</v>
       </c>
       <c r="H226" s="27">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I226" s="28" t="s">
         <v>677</v>
@@ -11285,7 +11411,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D227" s="27">
         <v>-1</v>
@@ -11294,13 +11420,13 @@
         <v>1</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>658</v>
+        <v>792</v>
       </c>
       <c r="G227" s="27">
         <v>1</v>
       </c>
       <c r="H227" s="27">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I227" s="28" t="s">
         <v>677</v>
@@ -11320,7 +11446,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D228" s="27">
         <v>-1</v>
@@ -11329,13 +11455,13 @@
         <v>1</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
       <c r="G228" s="27">
         <v>1</v>
       </c>
       <c r="H228" s="27">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I228" s="28" t="s">
         <v>677</v>
@@ -11355,7 +11481,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D229" s="27">
         <v>-1</v>
@@ -11364,13 +11490,13 @@
         <v>1</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>658</v>
+        <v>796</v>
       </c>
       <c r="G229" s="27">
         <v>1</v>
       </c>
       <c r="H229" s="27">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I229" s="28" t="s">
         <v>677</v>
@@ -11390,7 +11516,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D230" s="27">
         <v>-1</v>
@@ -11399,13 +11525,13 @@
         <v>1</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>658</v>
+        <v>797</v>
       </c>
       <c r="G230" s="27">
         <v>1</v>
       </c>
       <c r="H230" s="27">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I230" s="28" t="s">
         <v>677</v>
@@ -11425,7 +11551,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D231" s="27">
         <v>-1</v>
@@ -11434,13 +11560,13 @@
         <v>1</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="G231" s="27">
         <v>1</v>
       </c>
       <c r="H231" s="27">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I231" s="28" t="s">
         <v>677</v>
@@ -11460,7 +11586,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D232" s="27">
         <v>-1</v>
@@ -11469,13 +11595,13 @@
         <v>1</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>658</v>
+        <v>799</v>
       </c>
       <c r="G232" s="27">
         <v>1</v>
       </c>
       <c r="H232" s="27">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I232" s="28" t="s">
         <v>677</v>
@@ -11495,7 +11621,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D233" s="27">
         <v>-1</v>
@@ -11504,13 +11630,13 @@
         <v>1</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>658</v>
+        <v>794</v>
       </c>
       <c r="G233" s="27">
         <v>1</v>
       </c>
       <c r="H233" s="27">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I233" s="28" t="s">
         <v>677</v>
@@ -11530,7 +11656,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D234" s="27">
         <v>-1</v>
@@ -11539,13 +11665,13 @@
         <v>1</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>658</v>
+        <v>795</v>
       </c>
       <c r="G234" s="27">
         <v>1</v>
       </c>
       <c r="H234" s="27">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I234" s="28" t="s">
         <v>677</v>
@@ -11565,7 +11691,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D235" s="27">
         <v>-1</v>
@@ -11574,13 +11700,13 @@
         <v>1</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>658</v>
+        <v>800</v>
       </c>
       <c r="G235" s="27">
         <v>1</v>
       </c>
       <c r="H235" s="27">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I235" s="28" t="s">
         <v>677</v>
@@ -11600,7 +11726,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D236" s="27">
         <v>-1</v>
@@ -11609,13 +11735,13 @@
         <v>1</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>658</v>
+        <v>801</v>
       </c>
       <c r="G236" s="27">
         <v>1</v>
       </c>
       <c r="H236" s="27">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I236" s="28" t="s">
         <v>677</v>
@@ -11635,7 +11761,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D237" s="27">
         <v>-1</v>
@@ -11644,13 +11770,13 @@
         <v>1</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>658</v>
+        <v>802</v>
       </c>
       <c r="G237" s="27">
         <v>1</v>
       </c>
       <c r="H237" s="27">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I237" s="28" t="s">
         <v>677</v>
@@ -11670,7 +11796,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D238" s="27">
         <v>-1</v>
@@ -11679,13 +11805,13 @@
         <v>1</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>658</v>
+        <v>803</v>
       </c>
       <c r="G238" s="27">
         <v>1</v>
       </c>
       <c r="H238" s="27">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I238" s="28" t="s">
         <v>677</v>
@@ -11705,7 +11831,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D239" s="27">
         <v>-1</v>
@@ -11714,13 +11840,13 @@
         <v>1</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>658</v>
+        <v>804</v>
       </c>
       <c r="G239" s="27">
         <v>1</v>
       </c>
       <c r="H239" s="27">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I239" s="28" t="s">
         <v>677</v>
@@ -11740,7 +11866,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D240" s="27">
         <v>-1</v>
@@ -11749,13 +11875,13 @@
         <v>1</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>658</v>
+        <v>805</v>
       </c>
       <c r="G240" s="27">
         <v>1</v>
       </c>
       <c r="H240" s="27">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I240" s="28" t="s">
         <v>677</v>
@@ -11775,7 +11901,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D241" s="27">
         <v>-1</v>
@@ -11784,13 +11910,13 @@
         <v>1</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>658</v>
+        <v>806</v>
       </c>
       <c r="G241" s="27">
         <v>1</v>
       </c>
       <c r="H241" s="27">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I241" s="28" t="s">
         <v>677</v>
@@ -11810,7 +11936,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D242" s="27">
         <v>-1</v>
@@ -11819,13 +11945,13 @@
         <v>1</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>658</v>
+        <v>807</v>
       </c>
       <c r="G242" s="27">
         <v>1</v>
       </c>
       <c r="H242" s="27">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I242" s="28" t="s">
         <v>677</v>
@@ -11845,7 +11971,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D243" s="27">
         <v>-1</v>
@@ -11854,13 +11980,13 @@
         <v>1</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>658</v>
+        <v>808</v>
       </c>
       <c r="G243" s="27">
         <v>1</v>
       </c>
       <c r="H243" s="27">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I243" s="28" t="s">
         <v>677</v>
@@ -11880,7 +12006,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D244" s="27">
         <v>-1</v>
@@ -11889,13 +12015,13 @@
         <v>1</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>658</v>
+        <v>809</v>
       </c>
       <c r="G244" s="27">
         <v>1</v>
       </c>
       <c r="H244" s="27">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I244" s="28" t="s">
         <v>677</v>
@@ -11915,7 +12041,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D245" s="27">
         <v>-1</v>
@@ -11924,13 +12050,13 @@
         <v>1</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>658</v>
+        <v>810</v>
       </c>
       <c r="G245" s="27">
         <v>1</v>
       </c>
       <c r="H245" s="27">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I245" s="28" t="s">
         <v>677</v>
@@ -11950,7 +12076,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D246" s="27">
         <v>-1</v>
@@ -11959,13 +12085,13 @@
         <v>1</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>658</v>
+        <v>811</v>
       </c>
       <c r="G246" s="27">
         <v>1</v>
       </c>
       <c r="H246" s="27">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I246" s="28" t="s">
         <v>677</v>
@@ -11985,7 +12111,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D247" s="27">
         <v>-1</v>
@@ -11994,13 +12120,13 @@
         <v>1</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>658</v>
+        <v>812</v>
       </c>
       <c r="G247" s="27">
         <v>1</v>
       </c>
       <c r="H247" s="27">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I247" s="28" t="s">
         <v>677</v>
@@ -12020,7 +12146,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D248" s="27">
         <v>-1</v>
@@ -12029,13 +12155,13 @@
         <v>1</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>658</v>
+        <v>813</v>
       </c>
       <c r="G248" s="27">
         <v>1</v>
       </c>
       <c r="H248" s="27">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I248" s="28" t="s">
         <v>677</v>
@@ -12055,7 +12181,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D249" s="27">
         <v>-1</v>
@@ -12064,13 +12190,13 @@
         <v>1</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>658</v>
+        <v>814</v>
       </c>
       <c r="G249" s="27">
         <v>1</v>
       </c>
       <c r="H249" s="27">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I249" s="28" t="s">
         <v>677</v>
@@ -12090,7 +12216,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D250" s="27">
         <v>-1</v>
@@ -12099,13 +12225,13 @@
         <v>1</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>658</v>
+        <v>815</v>
       </c>
       <c r="G250" s="27">
         <v>1</v>
       </c>
       <c r="H250" s="27">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I250" s="28" t="s">
         <v>677</v>
@@ -12124,8 +12250,8 @@
       <c r="B251" s="27">
         <v>250</v>
       </c>
-      <c r="C251" s="28" t="s">
-        <v>667</v>
+      <c r="C251" s="27" t="s">
+        <v>743</v>
       </c>
       <c r="D251" s="27">
         <v>-1</v>
@@ -12134,19 +12260,19 @@
         <v>1</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>658</v>
+        <v>816</v>
       </c>
       <c r="G251" s="27">
         <v>1</v>
       </c>
       <c r="H251" s="27">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I251" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J251" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N251" s="27">
         <v>16</v>
@@ -12160,7 +12286,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>684</v>
+        <v>820</v>
       </c>
       <c r="D252" s="27">
         <v>-1</v>
@@ -12168,20 +12294,20 @@
       <c r="E252" s="27">
         <v>1</v>
       </c>
-      <c r="F252" s="27" t="s">
-        <v>658</v>
+      <c r="F252" s="28" t="s">
+        <v>819</v>
       </c>
       <c r="G252" s="27">
         <v>1</v>
       </c>
       <c r="H252" s="27">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I252" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J252" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N252" s="27">
         <v>16</v>
@@ -12195,7 +12321,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="D253" s="27">
         <v>-1</v>
@@ -12203,14 +12329,14 @@
       <c r="E253" s="27">
         <v>1</v>
       </c>
-      <c r="F253" s="27" t="s">
-        <v>658</v>
+      <c r="F253" s="28" t="s">
+        <v>787</v>
       </c>
       <c r="G253" s="27">
         <v>1</v>
       </c>
       <c r="H253" s="27">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I253" s="28" t="s">
         <v>678</v>
@@ -12230,7 +12356,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D254" s="27">
         <v>-1</v>
@@ -12239,13 +12365,13 @@
         <v>1</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>658</v>
+        <v>788</v>
       </c>
       <c r="G254" s="27">
         <v>1</v>
       </c>
       <c r="H254" s="27">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I254" s="28" t="s">
         <v>678</v>
@@ -12265,7 +12391,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D255" s="27">
         <v>-1</v>
@@ -12274,13 +12400,13 @@
         <v>1</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>658</v>
+        <v>786</v>
       </c>
       <c r="G255" s="27">
         <v>1</v>
       </c>
       <c r="H255" s="27">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I255" s="28" t="s">
         <v>678</v>
@@ -12300,7 +12426,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D256" s="27">
         <v>-1</v>
@@ -12309,13 +12435,13 @@
         <v>1</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>658</v>
+        <v>789</v>
       </c>
       <c r="G256" s="27">
         <v>1</v>
       </c>
       <c r="H256" s="27">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I256" s="28" t="s">
         <v>678</v>
@@ -12335,7 +12461,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D257" s="27">
         <v>-1</v>
@@ -12344,13 +12470,13 @@
         <v>1</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>658</v>
+        <v>790</v>
       </c>
       <c r="G257" s="27">
         <v>1</v>
       </c>
       <c r="H257" s="27">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I257" s="28" t="s">
         <v>678</v>
@@ -12370,7 +12496,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D258" s="27">
         <v>-1</v>
@@ -12379,13 +12505,13 @@
         <v>1</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>658</v>
+        <v>791</v>
       </c>
       <c r="G258" s="27">
         <v>1</v>
       </c>
       <c r="H258" s="27">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I258" s="28" t="s">
         <v>678</v>
@@ -12405,7 +12531,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D259" s="27">
         <v>-1</v>
@@ -12414,13 +12540,13 @@
         <v>1</v>
       </c>
       <c r="F259" s="27" t="s">
-        <v>658</v>
+        <v>792</v>
       </c>
       <c r="G259" s="27">
         <v>1</v>
       </c>
       <c r="H259" s="27">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I259" s="28" t="s">
         <v>678</v>
@@ -12440,7 +12566,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D260" s="27">
         <v>-1</v>
@@ -12449,13 +12575,13 @@
         <v>1</v>
       </c>
       <c r="F260" s="27" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
       <c r="G260" s="27">
         <v>1</v>
       </c>
       <c r="H260" s="27">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I260" s="28" t="s">
         <v>678</v>
@@ -12475,7 +12601,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D261" s="27">
         <v>-1</v>
@@ -12484,13 +12610,13 @@
         <v>1</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>658</v>
+        <v>796</v>
       </c>
       <c r="G261" s="27">
         <v>1</v>
       </c>
       <c r="H261" s="27">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I261" s="28" t="s">
         <v>678</v>
@@ -12510,7 +12636,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D262" s="27">
         <v>-1</v>
@@ -12519,13 +12645,13 @@
         <v>1</v>
       </c>
       <c r="F262" s="27" t="s">
-        <v>658</v>
+        <v>797</v>
       </c>
       <c r="G262" s="27">
         <v>1</v>
       </c>
       <c r="H262" s="27">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I262" s="28" t="s">
         <v>678</v>
@@ -12545,7 +12671,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D263" s="27">
         <v>-1</v>
@@ -12554,13 +12680,13 @@
         <v>1</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="G263" s="27">
         <v>1</v>
       </c>
       <c r="H263" s="27">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I263" s="28" t="s">
         <v>678</v>
@@ -12580,7 +12706,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D264" s="27">
         <v>-1</v>
@@ -12589,13 +12715,13 @@
         <v>1</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>658</v>
+        <v>799</v>
       </c>
       <c r="G264" s="27">
         <v>1</v>
       </c>
       <c r="H264" s="27">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I264" s="28" t="s">
         <v>678</v>
@@ -12615,7 +12741,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D265" s="27">
         <v>-1</v>
@@ -12624,13 +12750,13 @@
         <v>1</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>658</v>
+        <v>794</v>
       </c>
       <c r="G265" s="27">
         <v>1</v>
       </c>
       <c r="H265" s="27">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I265" s="28" t="s">
         <v>678</v>
@@ -12650,7 +12776,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D266" s="27">
         <v>-1</v>
@@ -12659,13 +12785,13 @@
         <v>1</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>658</v>
+        <v>795</v>
       </c>
       <c r="G266" s="27">
         <v>1</v>
       </c>
       <c r="H266" s="27">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I266" s="28" t="s">
         <v>678</v>
@@ -12685,7 +12811,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D267" s="27">
         <v>-1</v>
@@ -12694,13 +12820,13 @@
         <v>1</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>658</v>
+        <v>800</v>
       </c>
       <c r="G267" s="27">
         <v>1</v>
       </c>
       <c r="H267" s="27">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I267" s="28" t="s">
         <v>678</v>
@@ -12720,7 +12846,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D268" s="27">
         <v>-1</v>
@@ -12729,13 +12855,13 @@
         <v>1</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>658</v>
+        <v>801</v>
       </c>
       <c r="G268" s="27">
         <v>1</v>
       </c>
       <c r="H268" s="27">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I268" s="28" t="s">
         <v>678</v>
@@ -12755,7 +12881,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D269" s="27">
         <v>-1</v>
@@ -12764,13 +12890,13 @@
         <v>1</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>658</v>
+        <v>802</v>
       </c>
       <c r="G269" s="27">
         <v>1</v>
       </c>
       <c r="H269" s="27">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I269" s="28" t="s">
         <v>678</v>
@@ -12790,7 +12916,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D270" s="27">
         <v>-1</v>
@@ -12799,13 +12925,13 @@
         <v>1</v>
       </c>
       <c r="F270" s="27" t="s">
-        <v>658</v>
+        <v>803</v>
       </c>
       <c r="G270" s="27">
         <v>1</v>
       </c>
       <c r="H270" s="27">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I270" s="28" t="s">
         <v>678</v>
@@ -12825,7 +12951,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D271" s="27">
         <v>-1</v>
@@ -12834,13 +12960,13 @@
         <v>1</v>
       </c>
       <c r="F271" s="27" t="s">
-        <v>658</v>
+        <v>804</v>
       </c>
       <c r="G271" s="27">
         <v>1</v>
       </c>
       <c r="H271" s="27">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I271" s="28" t="s">
         <v>678</v>
@@ -12860,7 +12986,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D272" s="27">
         <v>-1</v>
@@ -12869,13 +12995,13 @@
         <v>1</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>658</v>
+        <v>805</v>
       </c>
       <c r="G272" s="27">
         <v>1</v>
       </c>
       <c r="H272" s="27">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I272" s="28" t="s">
         <v>678</v>
@@ -12895,7 +13021,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D273" s="27">
         <v>-1</v>
@@ -12904,13 +13030,13 @@
         <v>1</v>
       </c>
       <c r="F273" s="27" t="s">
-        <v>658</v>
+        <v>806</v>
       </c>
       <c r="G273" s="27">
         <v>1</v>
       </c>
       <c r="H273" s="27">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I273" s="28" t="s">
         <v>678</v>
@@ -12930,7 +13056,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D274" s="27">
         <v>-1</v>
@@ -12939,13 +13065,13 @@
         <v>1</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>658</v>
+        <v>807</v>
       </c>
       <c r="G274" s="27">
         <v>1</v>
       </c>
       <c r="H274" s="27">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I274" s="28" t="s">
         <v>678</v>
@@ -12965,7 +13091,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D275" s="27">
         <v>-1</v>
@@ -12974,13 +13100,13 @@
         <v>1</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>658</v>
+        <v>808</v>
       </c>
       <c r="G275" s="27">
         <v>1</v>
       </c>
       <c r="H275" s="27">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I275" s="28" t="s">
         <v>678</v>
@@ -13000,7 +13126,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D276" s="27">
         <v>-1</v>
@@ -13009,13 +13135,13 @@
         <v>1</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>658</v>
+        <v>809</v>
       </c>
       <c r="G276" s="27">
         <v>1</v>
       </c>
       <c r="H276" s="27">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I276" s="28" t="s">
         <v>678</v>
@@ -13035,7 +13161,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D277" s="27">
         <v>-1</v>
@@ -13044,13 +13170,13 @@
         <v>1</v>
       </c>
       <c r="F277" s="27" t="s">
-        <v>658</v>
+        <v>810</v>
       </c>
       <c r="G277" s="27">
         <v>1</v>
       </c>
       <c r="H277" s="27">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I277" s="28" t="s">
         <v>678</v>
@@ -13070,7 +13196,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D278" s="27">
         <v>-1</v>
@@ -13079,13 +13205,13 @@
         <v>1</v>
       </c>
       <c r="F278" s="27" t="s">
-        <v>658</v>
+        <v>811</v>
       </c>
       <c r="G278" s="27">
         <v>1</v>
       </c>
       <c r="H278" s="27">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I278" s="28" t="s">
         <v>678</v>
@@ -13105,7 +13231,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D279" s="27">
         <v>-1</v>
@@ -13114,13 +13240,13 @@
         <v>1</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>658</v>
+        <v>812</v>
       </c>
       <c r="G279" s="27">
         <v>1</v>
       </c>
       <c r="H279" s="27">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I279" s="28" t="s">
         <v>678</v>
@@ -13140,7 +13266,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D280" s="27">
         <v>-1</v>
@@ -13149,13 +13275,13 @@
         <v>1</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>658</v>
+        <v>813</v>
       </c>
       <c r="G280" s="27">
         <v>1</v>
       </c>
       <c r="H280" s="27">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I280" s="28" t="s">
         <v>678</v>
@@ -13175,7 +13301,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D281" s="27">
         <v>-1</v>
@@ -13184,13 +13310,13 @@
         <v>1</v>
       </c>
       <c r="F281" s="27" t="s">
-        <v>658</v>
+        <v>814</v>
       </c>
       <c r="G281" s="27">
         <v>1</v>
       </c>
       <c r="H281" s="27">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I281" s="28" t="s">
         <v>678</v>
@@ -13202,100 +13328,205 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="29">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A282" s="27">
         <v>281</v>
       </c>
-      <c r="B282" s="29">
+      <c r="B282" s="27">
         <v>281</v>
       </c>
-      <c r="C282" s="30" t="s">
+      <c r="C282" s="28" t="s">
+        <v>712</v>
+      </c>
+      <c r="D282" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E282" s="27">
+        <v>1</v>
+      </c>
+      <c r="F282" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="G282" s="27">
+        <v>1</v>
+      </c>
+      <c r="H282" s="27">
+        <v>98</v>
+      </c>
+      <c r="I282" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J282" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N282" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A283" s="27">
+        <v>282</v>
+      </c>
+      <c r="B283" s="27">
+        <v>282</v>
+      </c>
+      <c r="C283" s="28" t="s">
+        <v>713</v>
+      </c>
+      <c r="D283" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E283" s="27">
+        <v>1</v>
+      </c>
+      <c r="F283" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="G283" s="27">
+        <v>1</v>
+      </c>
+      <c r="H283" s="27">
+        <v>99</v>
+      </c>
+      <c r="I283" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J283" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N283" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A284" s="27">
+        <v>283</v>
+      </c>
+      <c r="B284" s="27">
+        <v>283</v>
+      </c>
+      <c r="C284" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="D284" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E284" s="27">
+        <v>1</v>
+      </c>
+      <c r="F284" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="G284" s="27">
+        <v>1</v>
+      </c>
+      <c r="H284" s="27">
+        <v>99</v>
+      </c>
+      <c r="I284" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J284" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N284" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="27">
+        <v>284</v>
+      </c>
+      <c r="B285" s="27">
+        <v>284</v>
+      </c>
+      <c r="C285" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="D285" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="30" t="s">
         <v>777</v>
       </c>
-      <c r="D282" s="29">
-        <v>-1</v>
-      </c>
-      <c r="E282" s="29">
-        <v>1</v>
-      </c>
-      <c r="F282" s="30" t="s">
+      <c r="G285" s="29">
+        <v>0</v>
+      </c>
+      <c r="H285" s="29">
+        <v>33</v>
+      </c>
+      <c r="I285" s="30" t="s">
+        <v>775</v>
+      </c>
+      <c r="J285" s="30" t="s">
         <v>778</v>
       </c>
-      <c r="G282" s="29">
+    </row>
+    <row r="286" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="27">
+        <v>285</v>
+      </c>
+      <c r="B286" s="27">
+        <v>285</v>
+      </c>
+      <c r="C286" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="D286" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E286" s="29">
+        <v>1</v>
+      </c>
+      <c r="F286" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="G286" s="29">
         <v>0</v>
       </c>
-      <c r="H282" s="29">
+      <c r="H286" s="29">
         <v>33</v>
       </c>
-      <c r="I282" s="30" t="s">
-        <v>776</v>
-      </c>
-      <c r="J282" s="30" t="s">
+      <c r="I286" s="29" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="29">
-        <v>282</v>
-      </c>
-      <c r="B283" s="29">
-        <v>282</v>
-      </c>
-      <c r="C283" s="30" t="s">
-        <v>782</v>
-      </c>
-      <c r="D283" s="29">
-        <v>-1</v>
-      </c>
-      <c r="E283" s="29">
-        <v>1</v>
-      </c>
-      <c r="F283" s="29" t="s">
-        <v>602</v>
-      </c>
-      <c r="G283" s="29">
+      <c r="J286" s="29" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="31">
+        <v>286</v>
+      </c>
+      <c r="B287" s="31">
+        <v>286</v>
+      </c>
+      <c r="C287" s="32" t="s">
+        <v>822</v>
+      </c>
+      <c r="D287" s="31">
+        <v>-1</v>
+      </c>
+      <c r="E287" s="31">
+        <v>1</v>
+      </c>
+      <c r="F287" s="31" t="s">
+        <v>823</v>
+      </c>
+      <c r="G287" s="31">
         <v>0</v>
       </c>
-      <c r="H283" s="29">
+      <c r="H287" s="31">
         <v>33</v>
       </c>
-      <c r="I283" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="J283" s="29" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="31">
-        <v>283</v>
-      </c>
-      <c r="B284" s="31">
-        <v>283</v>
-      </c>
-      <c r="C284" s="32" t="s">
-        <v>783</v>
-      </c>
-      <c r="D284" s="31">
-        <v>-1</v>
-      </c>
-      <c r="E284" s="31">
-        <v>1</v>
-      </c>
-      <c r="F284" s="31" t="s">
-        <v>784</v>
-      </c>
-      <c r="G284" s="31">
-        <v>0</v>
-      </c>
-      <c r="H284" s="31">
-        <v>33</v>
-      </c>
-      <c r="I284" s="31" t="s">
-        <v>785</v>
-      </c>
-      <c r="J284" s="31" t="s">
-        <v>786</v>
+      <c r="I287" s="31" t="s">
+        <v>824</v>
+      </c>
+      <c r="J287" s="31" t="s">
+        <v>825</v>
       </c>
     </row>
   </sheetData>
